--- a/biology/Botanique/Lecomtella_madagascariensis/Lecomtella_madagascariensis.xlsx
+++ b/biology/Botanique/Lecomtella_madagascariensis/Lecomtella_madagascariensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lecomtella madagascariensis est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Panicoideae, originaire de Madagascar.
 C'est l'unique espèce du genre Lecomtella (genre monotypique), lui-même rattaché à la  tribu des Paspaleae.
-L'espèce et le genre ont été décrits par Aimée Antoinette Camus en 1925[2].
+L'espèce et le genre ont été décrits par Aimée Antoinette Camus en 1925.
 Lecomtella madagascariensis est une plante vivace, aux tiges (chaumes) longs de 50 à 300 cm, qui ressemble à un bambou, bien qu'elle ne soit pas apparentée aux bambous (Bambusoideae).
-On ne la trouve que dans le massif d'Andringitra dans la région centrale de Madagascar, à des altitudes allant de 1 600 à 2 400 mètres. Elle est classée comme espèce en danger critique d'extinction par l'UICN[3]. 
+On ne la trouve que dans le massif d'Andringitra dans la région centrale de Madagascar, à des altitudes allant de 1 600 à 2 400 mètres. Elle est classée comme espèce en danger critique d'extinction par l'UICN. 
 Contrairement à de nombreuses autres espèces de la sous-famille des Panicoideae, Lecomtella madagascariensis utilise la voie photosynthétique en C3.
-Le genre Lecomtella a été rattaché à la tribu des Paspaleae dans une classification phylogénétique de 2015 [4], bien qu'une étude phylogénétique de 2013 ait montré qu'il est isolé au sein de la sous-famille des Panicoideae et qu'il serait mieux traité dans une tribu ad-hoc,  des Lecomtelleae[3].
+Le genre Lecomtella a été rattaché à la tribu des Paspaleae dans une classification phylogénétique de 2015 , bien qu'une étude phylogénétique de 2013 ait montré qu'il est isolé au sein de la sous-famille des Panicoideae et qu'il serait mieux traité dans une tribu ad-hoc,  des Lecomtelleae.
 </t>
         </is>
       </c>
